--- a/rsna/result_review.xlsx
+++ b/rsna/result_review.xlsx
@@ -2,13 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Normal; 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Resnet2D18_max" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Resnet2D18_mean" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Resnet2D18_attention_128" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Resnet2D_18_attention_64" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1178">
   <si>
     <t xml:space="preserve">Epoch 1/30</t>
   </si>
@@ -932,6 +936,2628 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;Figure size 640x480 with 1 Axes&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 1/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 61.3756</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy: 0.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 1/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.9773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 2/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 59.1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 2/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.8441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 3/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 59.8128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5740</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6429</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 3/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.7186</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5849</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 4/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 59.8894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5786</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 4/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.8065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 5/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 59.4282</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 5/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.6815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 6/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.2258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 6/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.6027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5597</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 7/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.2716</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5968</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 7/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.0874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 8/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.6850</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 8/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.2651</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5635</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 9/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 58.6671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 9/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.4831</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.1467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.2366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 10/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 56.8931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 10/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 11/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 59.4062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5763</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 11/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.8595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 12/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.2575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6077</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 12/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.8983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 13/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.6634</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5974</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6657</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 13/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.2635</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.5600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 14/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 56.8500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6186</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6686</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 14/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.8956</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5581</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 15/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 56.8269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6243</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 15/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 16/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 56.3739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 16/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.2388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.4444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 17/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.9875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6657</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6657</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 17/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 18/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 55.0881</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6449</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 18/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.0656</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.5733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 19/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.9034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 19/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.3348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 20/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 20/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.8802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6195</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 21/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.6168</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6693</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 21/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.5611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 22/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.4033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6986</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 22/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.3611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 23/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.1214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6905</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 23/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7073</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.3867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 24/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 24/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.8889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 25/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.9132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 25/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.7897</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7442</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 26/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.9899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 26/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.4486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 27/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.5336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 27/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.3333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.4673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 28/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.9171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 28/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.3251</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.3067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.4340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 29/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.6650</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 29/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.1454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 30/30 - Train:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.7937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 30/30 - Validation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.2433</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.2933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.4190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    patient_id study_instance_uid  label  prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0  ID_0748e0c1      ID_286183702b      0       False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  ID_1528ff50      ID_5d0a50f3db      1       False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2  ID_07d4f582      ID_8b1137e5bc      0        True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3  ID_03131dd0      ID_a4ed78f57e      0        True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4  ID_05e0a4a1      ID_9dd14f9fa3      1       False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy: 0.7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.3233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.7728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.6204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.7488</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.4036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.9776</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6425</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 28.9444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.5738</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6751</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 31.0241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.0305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6842</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 35.7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.0966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.3380</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6373</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.6966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.6147</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.1556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.3879</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.1558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.7273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.8113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4437</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.7858</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.9435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.9286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.3467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.4576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.7061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 47.7043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7243</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.7316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.5181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7478</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.5519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 45.7330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.2839</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 45.5705</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7529</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7425</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7743</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.8600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6778</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.2090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7417</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7629</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.2228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 43.8577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7643</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.4615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7222</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 44.5087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.9854</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 42.2944</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8257</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.7880</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.8083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 37.0699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.0533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.9689</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7786</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.6688</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.0745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7919</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.3358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 39.9306</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.8698</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 39.1580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7943</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7893</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.2583</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 38.1475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.4854</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 37.1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8187</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.5523</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8393</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 35.7232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.6130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8095</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 38.7592</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7929</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7904</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.3190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy: 0.7467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7681</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.3285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.1543</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.2512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 26.1216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.6494</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.5971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.8145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 55.0524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6568</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.8554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5772</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.3433</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.3747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.3814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6643</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6463</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6174</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.9168</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6712</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.8098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.5910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 31.6526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.3571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6981</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.4585</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6484</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.2574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.3797</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.2937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.0704</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.8718</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.8731</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.5849</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.5067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.8744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.6702</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.0512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8919</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.4400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.5893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.8120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.1607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 45.7875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.7390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5847</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 47.5865</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.7284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.4755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.5420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 45.4869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7479</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.1502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 43.7945</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.0339</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 43.8707</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.9026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.9675</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7696</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.2330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 43.2536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7686</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.9030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7097</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 42.5594</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7743</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.3006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.9076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7884</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.0984</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6907</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.7979</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7986</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.4506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7654</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 39.2946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7886</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.1825</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 39.3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7943</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.7054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7349</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 39.9170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7938</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.6889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6701</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.0698</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7831</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.4640</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy: 0.7067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.5092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5906</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.2143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.3145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.0445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.5028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6371</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 29.3139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.4625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6594</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 35.7120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.2118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.4475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.4970</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.8548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6649</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 34.6457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.9091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.1333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.2326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.9537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6620</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.8923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.3661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.9340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6538</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.4281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6694</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.9392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.4105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.2083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7199</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.3146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.6903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.7447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.2345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6702</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.5745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.6352</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.9056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.5820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7422</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 45.7326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7465</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.9597</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7722</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 44.8717</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.4044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 44.7930</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.3254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 43.4457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.2529</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 42.1524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.6876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.6399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.1390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.5834</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.5377</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6737</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.8001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.9944</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.4922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.6182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.3687</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.7711</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 38.8631</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.3857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 37.3108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.5181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7215</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 36.4401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.4799</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7436</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 36.0541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 36.4525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.3142</t>
   </si>
 </sst>
 </file>
@@ -946,6 +3572,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -966,12 +3593,14 @@
       <sz val="10"/>
       <name val="JetBrains Mono SemiBold"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF080808"/>
       <name val="JetBrains Mono SemiBold"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1112,9 +3741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>343440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,8 +3756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7215840" y="219600"/>
-          <a:ext cx="4935960" cy="4331520"/>
+          <a:off x="7220880" y="219600"/>
+          <a:ext cx="4957560" cy="4330440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,9 +3778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1164,8 +3793,324 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7206120" y="4743000"/>
+          <a:off x="7211160" y="4743000"/>
+          <a:ext cx="5754240" cy="4330440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8928720" y="516240"/>
+          <a:ext cx="5717880" cy="4330800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>712080</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>94680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8958240" y="4867200"/>
+          <a:ext cx="4924440" cy="4330800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6363360" y="516600"/>
+          <a:ext cx="5717160" cy="4331160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>673200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353640" y="5039280"/>
+          <a:ext cx="4924800" cy="4331160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6352920" y="353520"/>
           <a:ext cx="5728680" cy="4331520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704880</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6371640" y="4867200"/>
+          <a:ext cx="4935960" cy="4331520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>667800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7189200" y="382680"/>
+          <a:ext cx="5706720" cy="4331520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666360</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7164720" y="5039280"/>
+          <a:ext cx="4916880" cy="4331520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,16 +4132,16 @@
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,4 +5356,5526 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I130"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J120"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J120"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>997</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K120"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/rsna/result_review.xlsx
+++ b/rsna/result_review.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Normal; 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Resnet2D18_max" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Resnet2D18_mean" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Resnet2D18_attention_128" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Resnet2D18_mean_maxpooling" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="resnet2d18_mean_avgpooling" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Resnet2D_18_attention_64" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Resnet2D18_attention_128" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1352">
   <si>
     <t xml:space="preserve">Epoch 1/30</t>
   </si>
@@ -2420,6 +2421,1167 @@
     <t xml:space="preserve">Loss: 19.3190</t>
   </si>
   <si>
+    <t xml:space="preserve">Test Accuracy: 0.7333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.1717</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.6909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 59.4128</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.5439</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.9514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.5577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 58.1405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5854</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.6824</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 56.6386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6199</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.6070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 58.7505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6353</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.5534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6275</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.5284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 55.0452</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6643</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6517</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 28.2329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 55.9855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6371</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.2928</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 55.0847</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.2932</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.1656</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6676</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5882</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.4342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6480</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6957</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6929</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.2490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.6067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6943</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.1338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.2985</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.0897</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6824</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.9948</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6786</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6632</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.1327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5772</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.1070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 30.3595</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.4933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.4966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.6094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 24.0562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7941</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.4954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.8104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6819</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.2540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5426</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.4925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.4204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.5067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.3747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.9287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.4330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.9200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.2167</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.6242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 49.2698</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.6327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.3181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.3871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.1214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7176</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 47.6058</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7471</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.9393</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 47.8594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.5758</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 47.9455</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.7808</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy: 0.7067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 60.5092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5329</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5906</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.2143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.3145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 27.0445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 57.5028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.6129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.6371</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 29.3139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.4625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 35.7120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.2118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.4475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 25.4970</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.5362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 52.8548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6649</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 34.6457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.5600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.9091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.1333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.2326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 54.9537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6620</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.8923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 53.3661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.9340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6538</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.4281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6694</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.4440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 51.9392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.4105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.2083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7199</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.3146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 50.0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.6903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.6968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.7447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.2345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6702</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.5745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 48.6352</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.9056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 46.5820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7422</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 45.7326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7465</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 19.9597</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7722</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 44.8717</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.4044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 44.7930</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.3254</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 43.4457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.2529</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 42.1524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7735</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 22.6876</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.6399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7943</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 23.1390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.5834</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.5377</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6737</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 41.8001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.9944</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.4922</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7884</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.6182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 40.3687</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.7857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 21.7711</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.6598</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 38.8631</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.3857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7260</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 37.3108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.7857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.5181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 36.4401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.4799</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 36.0541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 36.4525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accuracy: 0.8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.8091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recall: 0.8114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.8103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss: 20.3142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precision: 0.7349</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1: 0.7722</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Accuracy: 0.7467</t>
   </si>
   <si>
@@ -2435,9 +3597,6 @@
     <t xml:space="preserve"> Accuracy: 0.5400</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision: 0.6750</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Recall: 0.1543</t>
   </si>
   <si>
@@ -2468,30 +3627,15 @@
     <t xml:space="preserve"> Precision: 0.6568</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.7000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.6777</t>
   </si>
   <si>
     <t xml:space="preserve">Loss: 24.8554</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.6267</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.5772</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7172</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 54.3433</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.6714</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.6613</t>
   </si>
   <si>
@@ -2513,9 +3657,6 @@
     <t xml:space="preserve">Loss: 54.3814</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.6643</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.6463</t>
   </si>
   <si>
@@ -2555,9 +3696,6 @@
     <t xml:space="preserve">Loss: 52.3571</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.7043</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.6981</t>
   </si>
   <si>
@@ -2570,9 +3708,6 @@
     <t xml:space="preserve"> Precision: 0.6484</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.7867</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.7108</t>
   </si>
   <si>
@@ -2588,27 +3723,15 @@
     <t xml:space="preserve">Loss: 21.3797</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision: 0.6600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7543</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 51.2937</t>
   </si>
   <si>
     <t xml:space="preserve">Loss: 25.0704</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.5533</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.5308</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.9200</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.6732</t>
   </si>
   <si>
@@ -2645,18 +3768,12 @@
     <t xml:space="preserve"> Precision: 0.7308</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.5067</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.5984</t>
   </si>
   <si>
     <t xml:space="preserve">Loss: 48.8744</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.7314</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.7238</t>
   </si>
   <si>
@@ -2672,9 +3789,6 @@
     <t xml:space="preserve">Loss: 48.6702</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision: 0.7000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.7288</t>
   </si>
   <si>
@@ -2714,24 +3828,15 @@
     <t xml:space="preserve"> Precision: 0.7586</t>
   </si>
   <si>
-    <t xml:space="preserve"> F1: 0.7564</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 23.7390</t>
   </si>
   <si>
     <t xml:space="preserve"> Precision: 0.5847</t>
   </si>
   <si>
-    <t xml:space="preserve"> F1: 0.7150</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 47.5865</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.7300</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.7320</t>
   </si>
   <si>
@@ -2741,33 +3846,21 @@
     <t xml:space="preserve">Loss: 46.4755</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.7471</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.7357</t>
   </si>
   <si>
     <t xml:space="preserve"> Recall: 0.7714</t>
   </si>
   <si>
-    <t xml:space="preserve"> F1: 0.7531</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 21.5420</t>
   </si>
   <si>
     <t xml:space="preserve"> Precision: 0.7937</t>
   </si>
   <si>
-    <t xml:space="preserve"> F1: 0.7246</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 45.4869</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.7500</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.7479</t>
   </si>
   <si>
@@ -2789,9 +3882,6 @@
     <t xml:space="preserve"> Precision: 0.7660</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.7857</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.7757</t>
   </si>
   <si>
@@ -2828,18 +3918,12 @@
     <t xml:space="preserve"> Precision: 0.7696</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.8114</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.7900</t>
   </si>
   <si>
     <t xml:space="preserve">Loss: 19.2330</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision: 0.7284</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 43.2536</t>
   </si>
   <si>
@@ -2873,9 +3957,6 @@
     <t xml:space="preserve"> Precision: 0.7727</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.7771</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.7749</t>
   </si>
   <si>
@@ -2891,12 +3972,6 @@
     <t xml:space="preserve">Loss: 40.9076</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision: 0.7884</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7827</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 20.0984</t>
   </si>
   <si>
@@ -2924,9 +3999,6 @@
     <t xml:space="preserve">Loss: 19.4506</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accuracy: 0.7867</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Precision: 0.7654</t>
   </si>
   <si>
@@ -2963,21 +4035,12 @@
     <t xml:space="preserve"> Precision: 0.7875</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recall: 0.7943</t>
-  </si>
-  <si>
     <t xml:space="preserve"> F1: 0.7909</t>
   </si>
   <si>
     <t xml:space="preserve">Loss: 19.7054</t>
   </si>
   <si>
-    <t xml:space="preserve"> Precision: 0.7349</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7722</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss: 39.9170</t>
   </si>
   <si>
@@ -3018,546 +4081,6 @@
   </si>
   <si>
     <t xml:space="preserve"> F1: 0.7871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Accuracy: 0.7067</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7313</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 60.5092</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.5329</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.5906</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.2143</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.3145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 27.0445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 57.5028</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.6129</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6076</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.6371</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 29.3139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 54.4625</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6594</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 35.7120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.9000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.2118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 54.4475</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6648</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 25.4970</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.5362</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 52.8548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.6757</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6649</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 34.6457</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.5600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.9091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.1333</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.2326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 54.9537</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6620</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.8923</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6337</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.8533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 53.3661</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6755</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.9340</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6538</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 51.4281</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6694</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 23.4440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 51.9392</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6875</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.4105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6559</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 50.2083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7199</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.3146</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 50.0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 22.6903</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.6968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 48.7447</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.2345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6702</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 46.3939</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7316</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 22.5745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 48.6352</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.7057</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6946</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.9056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7297</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 46.5820</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7422</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 22.1069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7536</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 45.7326</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7465</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 19.9597</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7722</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 44.8717</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7444</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.4044</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7250</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 44.7930</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7507</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.3254</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.7333</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 43.4457</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.7586</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7623</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.2529</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 42.1524</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.7829</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7735</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 22.6876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 41.6399</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.7771</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7680</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 23.1390</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 41.5834</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8042</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.5377</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6737</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 41.8001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.7814</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7744</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.9944</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7375</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 40.4922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.6182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 40.3687</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.7857</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7793</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 21.7711</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.6598</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 38.8631</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.8057</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8129</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.8035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.3857</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7260</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 37.3108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.8071</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8209</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.8029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.5181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7215</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 36.4401</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.8157</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8240</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.8133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.4799</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.7436</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.7582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 36.0541</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8319</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recall: 0.8057</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.8186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.7663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 36.4525</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accuracy: 0.8100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Precision: 0.8091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1: 0.8103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loss: 20.3142</t>
   </si>
 </sst>
 </file>
@@ -3741,9 +4264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>343440</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3756,8 +4279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7220880" y="219600"/>
-          <a:ext cx="4957560" cy="4330440"/>
+          <a:off x="7223400" y="219600"/>
+          <a:ext cx="4972320" cy="4329720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3778,9 +4301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3793,8 +4316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7211160" y="4743000"/>
-          <a:ext cx="5754240" cy="4330440"/>
+          <a:off x="7213680" y="4743000"/>
+          <a:ext cx="5771160" cy="4329720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3820,9 +4343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>660600</xdr:colOff>
+      <xdr:colOff>659880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3836,7 +4359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8928720" y="516240"/>
-          <a:ext cx="5717880" cy="4330800"/>
+          <a:ext cx="5719680" cy="4330080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3857,9 +4380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>712080</xdr:colOff>
+      <xdr:colOff>711360</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3873,7 +4396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8958240" y="4867200"/>
-          <a:ext cx="4924440" cy="4330800"/>
+          <a:ext cx="4923720" cy="4330080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3899,9 +4422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>661320</xdr:colOff>
+      <xdr:colOff>660600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3914,8 +4437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6363360" y="516600"/>
-          <a:ext cx="5717160" cy="4331160"/>
+          <a:off x="6366600" y="516600"/>
+          <a:ext cx="5719680" cy="4330440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3936,9 +4459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>673200</xdr:colOff>
+      <xdr:colOff>672480</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3951,8 +4474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353640" y="5039280"/>
-          <a:ext cx="4924800" cy="4331160"/>
+          <a:off x="6356880" y="5039280"/>
+          <a:ext cx="4924440" cy="4330440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3971,20 +4494,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>642960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPr id="6" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3993,8 +4516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6352920" y="353520"/>
-          <a:ext cx="5728680" cy="4331520"/>
+          <a:off x="7167960" y="487800"/>
+          <a:ext cx="5708160" cy="4331160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4008,20 +4531,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704880</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPr id="7" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4030,8 +4553,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6371640" y="4867200"/>
-          <a:ext cx="4935960" cy="4331520"/>
+          <a:off x="7167960" y="5202000"/>
+          <a:ext cx="4917240" cy="4331160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4057,9 +4580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>667800</xdr:colOff>
+      <xdr:colOff>667080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4072,8 +4595,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7189200" y="382680"/>
-          <a:ext cx="5706720" cy="4331520"/>
+          <a:off x="7195680" y="382680"/>
+          <a:ext cx="5709600" cy="4330800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4094,13 +4617,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>665640</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPr id="9" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4109,8 +4632,87 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7164720" y="5039280"/>
-          <a:ext cx="4916880" cy="4331520"/>
+          <a:off x="7171200" y="5039280"/>
+          <a:ext cx="4917600" cy="4330800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>665640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6356880" y="353520"/>
+          <a:ext cx="5731920" cy="4330800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704160</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>94680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6375600" y="4867200"/>
+          <a:ext cx="4936320" cy="4330800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4136,7 +4738,7 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
@@ -5369,7 +5971,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.65"/>
@@ -6783,11 +7385,11 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
@@ -8151,53 +8753,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N46" activeCellId="0" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>799</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>778</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>800</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>804</v>
+        <v>494</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>805</v>
@@ -8213,16 +8815,16 @@
         <v>806</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>807</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>619</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,19 +8834,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>427</v>
+        <v>810</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>809</v>
+        <v>141</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,19 +8856,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>814</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,19 +8878,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>603</v>
+        <v>803</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>813</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>814</v>
+        <v>78</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,19 +8900,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>817</v>
+        <v>666</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>379</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8320,19 +8922,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>98</v>
+        <v>494</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8342,16 +8944,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>825</v>
+        <v>112</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>826</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>827</v>
@@ -8367,16 +8969,16 @@
         <v>828</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8386,19 +8988,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8408,16 +9010,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>836</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>467</v>
+        <v>330</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>837</v>
@@ -8433,16 +9035,16 @@
         <v>838</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>325</v>
+        <v>839</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>326</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,19 +9054,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>465</v>
+        <v>842</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>814</v>
+        <v>256</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,16 +9076,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>846</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>9</v>
+        <v>680</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>10</v>
@@ -8496,19 +9098,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,19 +9120,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>280</v>
+        <v>443</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>849</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,19 +9142,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>456</v>
+        <v>855</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,19 +9164,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8584,19 +9186,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>576</v>
+        <v>96</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>230</v>
+        <v>862</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>577</v>
+        <v>863</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>578</v>
+        <v>864</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,19 +9208,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>860</v>
+        <v>47</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8628,19 +9230,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>266</v>
+        <v>870</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,19 +9252,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>423</v>
+        <v>733</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,19 +9274,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>626</v>
+        <v>876</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>179</v>
+        <v>612</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8694,19 +9296,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>666</v>
+        <v>421</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>873</v>
+        <v>488</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8716,19 +9318,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>876</v>
+        <v>456</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>628</v>
+        <v>148</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,19 +9340,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>422</v>
+        <v>886</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>114</v>
+        <v>887</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8760,19 +9362,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>204</v>
+        <v>890</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>183</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,19 +9384,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>886</v>
+        <v>92</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8804,19 +9406,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>656</v>
+        <v>897</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,19 +9428,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>645</v>
+        <v>71</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>216</v>
+        <v>901</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>174</v>
+        <v>435</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>892</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8848,19 +9450,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8870,19 +9472,19 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>860</v>
+        <v>693</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,19 +9494,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>148</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,19 +9516,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>507</v>
+        <v>866</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>508</v>
+        <v>914</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>509</v>
+        <v>379</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>510</v>
+        <v>915</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8936,19 +9538,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>907</v>
+        <v>130</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>908</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,19 +9560,19 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>731</v>
+        <v>920</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>498</v>
+        <v>853</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>911</v>
+        <v>864</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8980,19 +9582,19 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,19 +9604,19 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>169</v>
+        <v>927</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>733</v>
+        <v>928</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,19 +9626,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>919</v>
+        <v>890</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,19 +9648,19 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>211</v>
+        <v>488</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9068,19 +9670,19 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>894</v>
+        <v>938</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>676</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>928</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,19 +9692,19 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>731</v>
+        <v>219</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>509</v>
+        <v>942</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9112,19 +9714,19 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>726</v>
+        <v>945</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>934</v>
+        <v>88</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>935</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9134,19 +9736,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>731</v>
+        <v>162</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>848</v>
+        <v>488</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,19 +9758,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>941</v>
+        <v>706</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,19 +9780,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>944</v>
+        <v>466</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>114</v>
+        <v>954</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,19 +9802,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>947</v>
+        <v>649</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>949</v>
+        <v>206</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,19 +9824,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>335</v>
+        <v>702</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9244,19 +9846,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>726</v>
+        <v>963</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>949</v>
+        <v>236</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,19 +9868,19 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>731</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>92</v>
+        <v>800</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,19 +9890,19 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>961</v>
+        <v>204</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>963</v>
+        <v>628</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9310,19 +9912,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>966</v>
+        <v>722</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9332,19 +9934,19 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>970</v>
+        <v>559</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>972</v>
+        <v>159</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,19 +9956,19 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>153</v>
+        <v>702</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9376,19 +9978,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>759</v>
+        <v>981</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>979</v>
+        <v>628</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9398,19 +10000,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>264</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>702</v>
+        <v>887</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9420,19 +10022,19 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>985</v>
+        <v>204</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>761</v>
+        <v>628</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9445,13 +10047,13 @@
         <v>988</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>989</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>153</v>
+        <v>509</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>990</v>
@@ -9473,7 +10075,7 @@
         <v>993</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>979</v>
+        <v>183</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>994</v>
@@ -9489,13 +10091,13 @@
         <v>995</v>
       </c>
       <c r="B120" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>727</v>
-      </c>
       <c r="D120" s="0" t="s">
-        <v>702</v>
+        <v>887</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>997</v>
@@ -9520,20 +10122,20 @@
   </sheetPr>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9655,7 +10257,7 @@
         <v>141</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1015</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9665,10 +10267,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>1016</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>858</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>1017</v>
@@ -9690,7 +10292,7 @@
         <v>1020</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>1021</v>
@@ -9734,16 +10336,16 @@
         <v>1026</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>1027</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>1028</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>227</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9753,19 +10355,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>1033</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9775,19 +10377,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>456</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>408</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9797,16 +10399,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>280</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1040</v>
+        <v>887</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>681</v>
@@ -9819,19 +10421,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>524</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>148</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9841,19 +10443,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,19 +10465,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>280</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>130</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9885,7 +10487,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>666</v>
@@ -9907,19 +10509,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>524</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9929,19 +10531,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>702</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9951,19 +10553,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>675</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>494</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,7 +10575,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>259</v>
@@ -9985,7 +10587,7 @@
         <v>174</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1061</v>
+        <v>949</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9995,19 +10597,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>656</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>256</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10017,19 +10619,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>219</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>803</v>
+        <v>1063</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10039,10 +10641,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>901</v>
+        <v>992</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>529</v>
@@ -10051,7 +10653,7 @@
         <v>642</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,19 +10663,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>509</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,19 +10685,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>569</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>642</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1074</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,16 +10707,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1040</v>
+        <v>887</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>257</v>
@@ -10127,19 +10729,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1078</v>
+        <v>963</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>494</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,19 +10751,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>645</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>159</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10171,19 +10773,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>275</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>628</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,19 +10795,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>259</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>680</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10215,19 +10817,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>913</v>
+        <v>1087</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>266</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10237,19 +10839,19 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>966</v>
+        <v>1091</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>702</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10259,19 +10861,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>245</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>266</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10281,19 +10883,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>299</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>693</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,19 +10905,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>905</v>
+        <v>981</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>642</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10325,7 +10927,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>269</v>
@@ -10334,10 +10936,10 @@
         <v>412</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10347,19 +10949,19 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>1108</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>1110</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>676</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10369,19 +10971,19 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>299</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>882</v>
+        <v>1111</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>509</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10391,19 +10993,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>1114</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>1115</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>1116</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>733</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,19 +11015,19 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>854</v>
+        <v>1118</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>114</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>855</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10435,19 +11037,19 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>979</v>
+        <v>1123</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10457,13 +11059,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>731</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>271</v>
@@ -10479,19 +11081,19 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>794</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>698</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,19 +11103,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>269</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>1040</v>
+        <v>887</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10523,19 +11125,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>979</v>
+        <v>1123</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10545,19 +11147,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>722</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>848</v>
+        <v>800</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10567,19 +11169,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>726</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>955</v>
+        <v>1141</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>949</v>
+        <v>1142</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>956</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,19 +11191,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>199</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>509</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,19 +11213,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>287</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,19 +11235,19 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>239</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>1040</v>
+        <v>887</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10655,19 +11257,19 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>979</v>
+        <v>1123</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10677,19 +11279,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>269</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>778</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10699,19 +11301,19 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>921</v>
+        <v>1162</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,19 +11323,19 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>259</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>183</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>1160</v>
+        <v>895</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10743,19 +11345,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>761</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10765,19 +11367,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>722</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>693</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>1167</v>
+        <v>955</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10787,19 +11389,19 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>780</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10809,19 +11411,19 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>722</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>848</v>
+        <v>800</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10831,19 +11433,19 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>934</v>
+        <v>1180</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10853,19 +11455,1386 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>264</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>982</v>
+        <v>1183</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>702</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>983</v>
+        <v>1184</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J120"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N45" activeCellId="0" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
